--- a/goods-partner-backend/src/main/resources/report/template_report_of_cars_with_orders.xlsx
+++ b/goods-partner-backend/src/main/resources/report/template_report_of_cars_with_orders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\project\goods-partner-backend\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B51C3-F231-41E5-B807-0516EBB5BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5BAD9E-87DD-47F3-AD97-023D113A0342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8F83844-1809-4A9B-92E4-064A27D3879B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="orders_in_car" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_orders_in_carA3H6" hidden="1">orders_in_car!$A$3:$H$5</definedName>
+    <definedName name="_xlcn.WorksheetConnection_orders_in_carA3H61" hidden="1">orders_in_car!$A$3:$H$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +56,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Діапазон" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_orders_in_carA3H6"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_orders_in_carA3H61"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -174,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,57 +208,6 @@
       </right>
       <top style="medium">
         <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -307,7 +255,22 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
       <top style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </top>
@@ -318,21 +281,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,13 +304,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,57 +327,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +412,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -484,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -590,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,10 +709,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,14 +721,14 @@
     <col min="2" max="2" width="20.33203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="15.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="33" style="15" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="15" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -772,19 +738,19 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -821,7 +787,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -832,232 +798,291 @@
       <c r="H5" s="10"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="17"/>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1067,7 +1092,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1077,7 +1102,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1087,7 +1112,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1097,7 +1122,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1292,6 +1317,6 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>